--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_SELECT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>VIN</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>TEST</t>
   </si>
 </sst>
 </file>
@@ -532,7 +535,7 @@
   <dimension ref="A1:AJ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -692,13 +695,13 @@
         <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>29</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_SELECT.xlsx
@@ -158,9 +158,6 @@
     <t>CA_SE</t>
   </si>
   <si>
-    <t>BBBKN3DD&amp;E</t>
-  </si>
-  <si>
     <t>BI_SYMBOL</t>
   </si>
   <si>
@@ -189,6 +186,9 @@
   </si>
   <si>
     <t>TEST</t>
+  </si>
+  <si>
+    <t>1FDEU15H&amp;K</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
   <dimension ref="A1:AJ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -642,33 +642,33 @@
         <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>42</v>
@@ -695,13 +695,13 @@
         <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>29</v>
@@ -773,7 +773,7 @@
         <v>39</v>
       </c>
       <c r="AJ2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_SELECT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>VIN</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>1FDEU15H&amp;K</t>
+  </si>
+  <si>
+    <t>STAT</t>
   </si>
 </sst>
 </file>
@@ -532,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AG8" sqref="AG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,12 +554,13 @@
     <col min="23" max="23" width="22.21875" customWidth="1"/>
     <col min="24" max="24" width="20.88671875" customWidth="1"/>
     <col min="25" max="25" width="34.77734375" customWidth="1"/>
-    <col min="26" max="26" width="14.88671875" customWidth="1"/>
-    <col min="27" max="27" width="16.21875" customWidth="1"/>
-    <col min="36" max="36" width="21.44140625" customWidth="1"/>
+    <col min="26" max="26" width="8.21875" customWidth="1"/>
+    <col min="27" max="27" width="14.88671875" customWidth="1"/>
+    <col min="28" max="28" width="16.21875" customWidth="1"/>
+    <col min="37" max="37" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,40 +637,43 @@
         <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -742,17 +749,17 @@
       <c r="Y2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Z2" s="3">
-        <v>41</v>
+      <c r="Z2" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="AA2" s="3">
         <v>41</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AB2" s="3">
+        <v>41</v>
+      </c>
+      <c r="AC2" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>38</v>
@@ -763,20 +770,23 @@
       <c r="AF2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH2">
         <v>20000101</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>39</v>
       </c>
       <c r="AI2" t="s">
         <v>39</v>
       </c>
       <c r="AJ2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -804,6 +814,7 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_SELECT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>VIN</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>STAT</t>
+  </si>
+  <si>
+    <t>CHOICE_TIER</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -535,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK3"/>
+  <dimension ref="A1:AL3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AG8" sqref="AG8"/>
+      <selection activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,11 +562,11 @@
     <col min="25" max="25" width="34.77734375" customWidth="1"/>
     <col min="26" max="26" width="8.21875" customWidth="1"/>
     <col min="27" max="27" width="14.88671875" customWidth="1"/>
-    <col min="28" max="28" width="16.21875" customWidth="1"/>
-    <col min="37" max="37" width="21.44140625" customWidth="1"/>
+    <col min="28" max="29" width="16.21875" customWidth="1"/>
+    <col min="38" max="38" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,34 +652,37 @@
         <v>26</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -759,10 +768,10 @@
         <v>41</v>
       </c>
       <c r="AC2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>38</v>
@@ -773,20 +782,23 @@
       <c r="AG2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI2">
         <v>20000101</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>39</v>
       </c>
       <c r="AJ2" t="s">
         <v>39</v>
       </c>
       <c r="AK2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -815,6 +827,7 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_SELECT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gu1xkaz\IdeaProjects\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="60">
   <si>
     <t>VIN</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SYMBOL_2000_CA_SELECT_ENTRY_DATE</t>
   </si>
 </sst>
 </file>
@@ -541,16 +547,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL3"/>
+  <dimension ref="A1:AL5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="14.88671875" customWidth="1"/>
@@ -799,35 +805,352 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2005</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="3">
+        <v>53080</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="3">
+        <v>8</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>214</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="3">
+        <v>2</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="3">
+        <v>2</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>41</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI3">
+        <v>20000101</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2005</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="3">
+        <v>53080</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="3">
+        <v>8</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>214</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="3">
+        <v>2</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" s="3">
+        <v>2</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>41</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>41</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI4">
+        <v>20150101</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2005</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="3">
+        <v>53080</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="3">
+        <v>8</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>214</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="3">
+        <v>2</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" s="3">
+        <v>2</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>41</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>41</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI5">
+        <v>20180101</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_SELECT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="61">
   <si>
     <t>VIN</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>SYMBOL_2000_CA_SELECT_ENTRY_DATE</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -549,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AH7" sqref="AH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,6 +572,7 @@
     <col min="26" max="26" width="8.21875" customWidth="1"/>
     <col min="27" max="27" width="14.88671875" customWidth="1"/>
     <col min="28" max="29" width="16.21875" customWidth="1"/>
+    <col min="35" max="35" width="10" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -780,16 +784,16 @@
         <v>39</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AI2">
         <v>20000101</v>
@@ -1140,7 +1144,7 @@
         <v>52</v>
       </c>
       <c r="AI5">
-        <v>20180101</v>
+        <v>20190101</v>
       </c>
       <c r="AJ5" t="s">
         <v>39</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_SELECT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="60">
   <si>
     <t>VIN</t>
   </si>
@@ -201,9 +201,6 @@
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>SYMBOL_2000_CA_SELECT_ENTRY_DATE</t>
   </si>
   <si>
     <t>T</t>
@@ -213,7 +210,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +228,12 @@
     <font>
       <sz val="11"/>
       <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -262,13 +265,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -552,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AH7" sqref="AH7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,16 +788,16 @@
         <v>39</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI2">
         <v>20000101</v>
@@ -812,8 +816,8 @@
       <c r="A3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>59</v>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="3">
         <v>2005</v>
@@ -928,8 +932,8 @@
       <c r="A4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>59</v>
+      <c r="B4" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C4" s="3">
         <v>2005</v>
@@ -1044,8 +1048,8 @@
       <c r="A5" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>59</v>
+      <c r="B5" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C5" s="3">
         <v>2005</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_SELECT.xlsx
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1136,16 +1136,16 @@
         <v>39</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AI5">
         <v>20190101</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_SELECT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="61">
   <si>
     <t>VIN</t>
   </si>
@@ -155,9 +155,6 @@
     <t>SYMBOL_2000_CA_SELECT</t>
   </si>
   <si>
-    <t>CA_SE</t>
-  </si>
-  <si>
     <t>BI_SYMBOL</t>
   </si>
   <si>
@@ -204,6 +201,12 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>CA_MAKE</t>
+  </si>
+  <si>
+    <t>CA_MAKE_TEXT</t>
   </si>
 </sst>
 </file>
@@ -556,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -657,7 +660,7 @@
         <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>25</v>
@@ -666,39 +669,39 @@
         <v>26</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>42</v>
@@ -707,10 +710,10 @@
         <v>2005</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -725,13 +728,13 @@
         <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>29</v>
@@ -782,22 +785,22 @@
         <v>41</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>39</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AI2">
         <v>20000101</v>
@@ -809,12 +812,12 @@
         <v>39</v>
       </c>
       <c r="AL2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>42</v>
@@ -823,10 +826,10 @@
         <v>2005</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -841,13 +844,13 @@
         <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>29</v>
@@ -898,39 +901,39 @@
         <v>41</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI3">
         <v>20000101</v>
       </c>
       <c r="AJ3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AK3" t="s">
         <v>39</v>
       </c>
       <c r="AL3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>42</v>
@@ -939,10 +942,10 @@
         <v>2005</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -957,13 +960,13 @@
         <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>29</v>
@@ -1014,22 +1017,22 @@
         <v>41</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD4" s="3" t="s">
         <v>39</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AI4">
         <v>20150101</v>
@@ -1041,12 +1044,12 @@
         <v>39</v>
       </c>
       <c r="AL4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>42</v>
@@ -1055,10 +1058,10 @@
         <v>2005</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -1073,13 +1076,13 @@
         <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>29</v>
@@ -1130,7 +1133,7 @@
         <v>41</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD5" s="3" t="s">
         <v>39</v>
@@ -1157,7 +1160,7 @@
         <v>39</v>
       </c>
       <c r="AL5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
